--- a/excels/config/server/equip/server_equip_drop_config.xlsx
+++ b/excels/config/server/equip/server_equip_drop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="779"/>
+    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="server_equip_drop_count" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="21">
   <si>
     <t>难度编号</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>掉落装备等级</t>
+  </si>
+  <si>
+    <t>等级概率</t>
   </si>
   <si>
     <t>difficulty_index</t>
@@ -74,6 +77,9 @@
     <t>equip_level</t>
   </si>
   <si>
+    <t>equip_level_pro</t>
+  </si>
+  <si>
     <t>1_0_1|1_1_1|1_2_1|1_3_1|1_4_1|1_5_1</t>
   </si>
   <si>
@@ -81,6 +87,12 @@
   </si>
   <si>
     <t>70|20|8|2</t>
+  </si>
+  <si>
+    <t>0|0</t>
+  </si>
+  <si>
+    <t>100|0</t>
   </si>
 </sst>
 </file>
@@ -843,7 +855,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -865,22 +877,34 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1214,15 +1238,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.2" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.2" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.5083333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="7" customWidth="1"/>
@@ -1230,12 +1254,11 @@
     <col min="4" max="4" width="18.375" style="8" customWidth="1"/>
     <col min="5" max="5" width="14.5083333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.0083333333333" style="2" customWidth="1"/>
-    <col min="8" max="16382" width="9" style="2"/>
-    <col min="16384" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="16.0083333333333" style="2" customWidth="1"/>
+    <col min="9" max="16383" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1257,903 +1280,955 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A2" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:8">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A3" s="13">
+      <c r="G2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A3" s="15">
         <v>101</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A4" s="18">
+        <v>102</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A5" s="15">
+        <v>103</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A6" s="18">
+        <v>104</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A7" s="15">
+        <v>105</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>10</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A8" s="18">
+        <v>201</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>6</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A9" s="15">
+        <v>202</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>7</v>
+      </c>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A10" s="18">
+        <v>203</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="19">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>8</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A11" s="15">
+        <v>204</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>9</v>
+      </c>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A12" s="18">
+        <v>205</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>10</v>
+      </c>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A13" s="15">
+        <v>301</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>11</v>
+      </c>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A14" s="18">
+        <v>302</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>12</v>
+      </c>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A15" s="15">
+        <v>303</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>13</v>
+      </c>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A16" s="18">
+        <v>304</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
         <v>14</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A17" s="15">
+        <v>305</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
         <v>15</v>
       </c>
-      <c r="D3" s="14">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A4" s="15">
-        <v>102</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A5" s="13">
-        <v>103</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A6" s="15">
-        <v>104</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="16">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A7" s="13">
-        <v>105</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A8" s="15">
-        <v>201</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A9" s="13">
-        <v>202</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A10" s="15">
-        <v>203</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A11" s="13">
-        <v>204</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="14">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A12" s="15">
-        <v>205</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="16">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A13" s="13">
-        <v>301</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="14">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A14" s="15">
-        <v>302</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="16">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A15" s="13">
-        <v>303</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="14">
-        <v>2</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A16" s="15">
-        <v>304</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A17" s="13">
-        <v>305</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="14">
-        <v>2</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A18" s="15">
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A18" s="18">
         <v>401</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="16">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="14">
-        <v>20</v>
-      </c>
-      <c r="G18" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A19" s="13">
+      <c r="B18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="19">
+        <v>2</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="16">
+        <v>20</v>
+      </c>
+      <c r="G18" s="19">
+        <v>16</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A19" s="15">
         <v>402</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="14">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="14">
-        <v>20</v>
-      </c>
-      <c r="G19" s="14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A20" s="15">
+      <c r="B19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="16">
+        <v>20</v>
+      </c>
+      <c r="G19" s="16">
+        <v>17</v>
+      </c>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A20" s="18">
         <v>403</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="16">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="14">
-        <v>20</v>
-      </c>
-      <c r="G20" s="16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A21" s="13">
+      <c r="B20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="19">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="16">
+        <v>20</v>
+      </c>
+      <c r="G20" s="19">
+        <v>18</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A21" s="15">
         <v>404</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="14">
-        <v>2</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="14">
-        <v>20</v>
-      </c>
-      <c r="G21" s="14">
+      <c r="B21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="16">
+        <v>2</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="16">
+        <v>20</v>
+      </c>
+      <c r="G21" s="16">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A22" s="15">
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A22" s="18">
         <v>405</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="16">
-        <v>2</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="14">
-        <v>20</v>
-      </c>
-      <c r="G22" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A23" s="15">
+      <c r="B22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="19">
+        <v>2</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="16">
+        <v>20</v>
+      </c>
+      <c r="G22" s="19">
+        <v>20</v>
+      </c>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A23" s="18">
         <v>406</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="14">
-        <v>2</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="14">
-        <v>20</v>
-      </c>
-      <c r="G23" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A24" s="15">
+      <c r="B23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="16">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="16">
+        <v>20</v>
+      </c>
+      <c r="G23" s="19">
+        <v>20</v>
+      </c>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A24" s="18">
         <v>407</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="16">
-        <v>2</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="14">
-        <v>20</v>
-      </c>
-      <c r="G24" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A25" s="15">
+      <c r="B24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="16">
+        <v>20</v>
+      </c>
+      <c r="G24" s="19">
+        <v>20</v>
+      </c>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A25" s="18">
         <v>408</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="16">
-        <v>2</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="14">
-        <v>20</v>
-      </c>
-      <c r="G25" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A26" s="15">
+      <c r="B25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="16">
+        <v>20</v>
+      </c>
+      <c r="G25" s="19">
+        <v>20</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A26" s="18">
         <v>409</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="16">
-        <v>2</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="14">
-        <v>20</v>
-      </c>
-      <c r="G26" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A27" s="15">
+      <c r="B26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="16">
+        <v>20</v>
+      </c>
+      <c r="G26" s="19">
+        <v>20</v>
+      </c>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A27" s="18">
         <v>410</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="16">
-        <v>2</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="14">
-        <v>20</v>
-      </c>
-      <c r="G27" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A28" s="15">
+      <c r="B27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="19">
+        <v>2</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="16">
+        <v>20</v>
+      </c>
+      <c r="G27" s="19">
+        <v>20</v>
+      </c>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A28" s="18">
         <v>411</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="16">
-        <v>2</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="14">
-        <v>20</v>
-      </c>
-      <c r="G28" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A29" s="15">
+      <c r="B28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="19">
+        <v>2</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="16">
+        <v>20</v>
+      </c>
+      <c r="G28" s="19">
+        <v>20</v>
+      </c>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A29" s="18">
         <v>501</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="16">
-        <v>2</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="14">
-        <v>20</v>
-      </c>
-      <c r="G29" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A30" s="15">
+      <c r="B29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="16">
+        <v>20</v>
+      </c>
+      <c r="G29" s="19">
+        <v>20</v>
+      </c>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A30" s="18">
         <v>502</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="16">
-        <v>2</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="14">
-        <v>20</v>
-      </c>
-      <c r="G30" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A31" s="15">
+      <c r="B30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="19">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="16">
+        <v>20</v>
+      </c>
+      <c r="G30" s="19">
+        <v>20</v>
+      </c>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A31" s="18">
         <v>503</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="16">
-        <v>2</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="14">
-        <v>20</v>
-      </c>
-      <c r="G31" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A32" s="15">
+      <c r="B31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="19">
+        <v>2</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="16">
+        <v>20</v>
+      </c>
+      <c r="G31" s="19">
+        <v>20</v>
+      </c>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A32" s="18">
         <v>504</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="16">
-        <v>2</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="14">
-        <v>20</v>
-      </c>
-      <c r="G32" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A33" s="15">
+      <c r="B32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="19">
+        <v>2</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="16">
+        <v>20</v>
+      </c>
+      <c r="G32" s="19">
+        <v>20</v>
+      </c>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A33" s="18">
         <v>505</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="16">
-        <v>2</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="14">
-        <v>20</v>
-      </c>
-      <c r="G33" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A34" s="15">
+      <c r="B33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="19">
+        <v>2</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="16">
+        <v>20</v>
+      </c>
+      <c r="G33" s="19">
+        <v>20</v>
+      </c>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A34" s="18">
         <v>601</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="16">
-        <v>2</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="14">
-        <v>20</v>
-      </c>
-      <c r="G34" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A35" s="15">
+      <c r="B34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="19">
+        <v>2</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="16">
+        <v>20</v>
+      </c>
+      <c r="G34" s="19">
+        <v>20</v>
+      </c>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A35" s="18">
         <v>602</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="16">
-        <v>2</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="14">
-        <v>20</v>
-      </c>
-      <c r="G35" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A36" s="15">
+      <c r="B35" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="19">
+        <v>2</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="16">
+        <v>20</v>
+      </c>
+      <c r="G35" s="19">
+        <v>20</v>
+      </c>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A36" s="18">
         <v>603</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="16">
-        <v>2</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="14">
-        <v>20</v>
-      </c>
-      <c r="G36" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A37" s="15">
+      <c r="B36" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="19">
+        <v>2</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="16">
+        <v>20</v>
+      </c>
+      <c r="G36" s="19">
+        <v>20</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A37" s="18">
         <v>604</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="16">
-        <v>2</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="14">
-        <v>20</v>
-      </c>
-      <c r="G37" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A38" s="15">
+      <c r="B37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="19">
+        <v>2</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="16">
+        <v>20</v>
+      </c>
+      <c r="G37" s="19">
+        <v>20</v>
+      </c>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A38" s="18">
         <v>605</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="16">
-        <v>2</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="14">
-        <v>20</v>
-      </c>
-      <c r="G38" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A39" s="15">
+      <c r="B38" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="19">
+        <v>2</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="16">
+        <v>20</v>
+      </c>
+      <c r="G38" s="19">
+        <v>20</v>
+      </c>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A39" s="18">
         <v>606</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="16">
-        <v>2</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="14">
-        <v>20</v>
-      </c>
-      <c r="G39" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A40" s="15">
+      <c r="B39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="19">
+        <v>2</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="16">
+        <v>20</v>
+      </c>
+      <c r="G39" s="19">
+        <v>20</v>
+      </c>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A40" s="18">
         <v>607</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="16">
-        <v>2</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="14">
-        <v>20</v>
-      </c>
-      <c r="G40" s="16">
-        <v>20</v>
-      </c>
+      <c r="B40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="19">
+        <v>2</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="16">
+        <v>20</v>
+      </c>
+      <c r="G40" s="19">
+        <v>20</v>
+      </c>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" customFormat="1" ht="22.5" customHeight="1"/>
     <row r="42" customFormat="1" ht="22.5" customHeight="1"/>

--- a/excels/config/server/equip/server_equip_drop_config.xlsx
+++ b/excels/config/server/equip/server_equip_drop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="779"/>
+    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="server_equip_drop_count" sheetId="5" r:id="rId1"/>
@@ -855,7 +855,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -884,9 +884,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,10 +1237,10 @@
   <sheetPr/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.2" customHeight="1" outlineLevelCol="7"/>
@@ -1306,929 +1303,929 @@
       <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>101</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="16">
-        <v>2</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="15">
         <v>0</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>102</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="19">
-        <v>2</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="15">
         <v>0</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>0</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>103</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="16">
-        <v>2</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="15">
         <v>0</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>0</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>104</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="19">
-        <v>2</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="B6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="15">
         <v>0</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>0</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>105</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="16">
-        <v>2</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="15">
         <v>0</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>10</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>201</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="19">
-        <v>2</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="B8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="15">
         <v>0</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>6</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>202</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="16">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="15">
         <v>0</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>7</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>203</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="19">
-        <v>2</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="B10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15">
         <v>0</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>8</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>204</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="B11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="15">
         <v>0</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>9</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>205</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="19">
-        <v>2</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="B12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="15">
         <v>0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>10</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>301</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="B13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="15">
         <v>0</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>11</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>302</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="19">
-        <v>2</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="16">
+      <c r="B14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="15">
         <v>0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <v>12</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>303</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="16">
-        <v>2</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="16">
+      <c r="B15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="15">
         <v>0</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>13</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>304</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="19">
-        <v>2</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="16">
+      <c r="B16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="15">
         <v>0</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>14</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>305</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="16">
-        <v>2</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="16">
+      <c r="B17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="15">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="15">
         <v>0</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>15</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>401</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="19">
-        <v>2</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="16">
-        <v>20</v>
-      </c>
-      <c r="G18" s="19">
-        <v>16</v>
-      </c>
-      <c r="H18" s="20"/>
+      <c r="B18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="15">
+        <v>20</v>
+      </c>
+      <c r="G18" s="18">
+        <v>16</v>
+      </c>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>402</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="16">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="16">
-        <v>20</v>
-      </c>
-      <c r="G19" s="16">
-        <v>17</v>
-      </c>
-      <c r="H19" s="17"/>
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="15">
+        <v>20</v>
+      </c>
+      <c r="G19" s="15">
+        <v>17</v>
+      </c>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>403</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="19">
-        <v>2</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="16">
-        <v>20</v>
-      </c>
-      <c r="G20" s="19">
-        <v>18</v>
-      </c>
-      <c r="H20" s="20"/>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="15">
+        <v>20</v>
+      </c>
+      <c r="G20" s="18">
+        <v>18</v>
+      </c>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>404</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="16">
-        <v>2</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="16">
-        <v>20</v>
-      </c>
-      <c r="G21" s="16">
+      <c r="B21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="15">
+        <v>20</v>
+      </c>
+      <c r="G21" s="15">
         <v>19</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>405</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="19">
-        <v>2</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="16">
-        <v>20</v>
-      </c>
-      <c r="G22" s="19">
-        <v>20</v>
-      </c>
-      <c r="H22" s="20"/>
+      <c r="B22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="15">
+        <v>20</v>
+      </c>
+      <c r="G22" s="18">
+        <v>20</v>
+      </c>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>406</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="16">
-        <v>2</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="16">
-        <v>20</v>
-      </c>
-      <c r="G23" s="19">
-        <v>20</v>
-      </c>
-      <c r="H23" s="20"/>
+      <c r="B23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="15">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="15">
+        <v>20</v>
+      </c>
+      <c r="G23" s="18">
+        <v>20</v>
+      </c>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>407</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="19">
-        <v>2</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="16">
-        <v>20</v>
-      </c>
-      <c r="G24" s="19">
-        <v>20</v>
-      </c>
-      <c r="H24" s="20"/>
+      <c r="B24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="18">
+        <v>2</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="15">
+        <v>20</v>
+      </c>
+      <c r="G24" s="18">
+        <v>20</v>
+      </c>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>408</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="19">
-        <v>2</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="16">
-        <v>20</v>
-      </c>
-      <c r="G25" s="19">
-        <v>20</v>
-      </c>
-      <c r="H25" s="20"/>
+      <c r="B25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="15">
+        <v>20</v>
+      </c>
+      <c r="G25" s="18">
+        <v>20</v>
+      </c>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>409</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="19">
-        <v>2</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="16">
-        <v>20</v>
-      </c>
-      <c r="G26" s="19">
-        <v>20</v>
-      </c>
-      <c r="H26" s="20"/>
+      <c r="B26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="15">
+        <v>20</v>
+      </c>
+      <c r="G26" s="18">
+        <v>20</v>
+      </c>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>410</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="19">
-        <v>2</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="16">
-        <v>20</v>
-      </c>
-      <c r="G27" s="19">
-        <v>20</v>
-      </c>
-      <c r="H27" s="20"/>
+      <c r="B27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="15">
+        <v>20</v>
+      </c>
+      <c r="G27" s="18">
+        <v>20</v>
+      </c>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <v>411</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="19">
-        <v>2</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="16">
-        <v>20</v>
-      </c>
-      <c r="G28" s="19">
-        <v>20</v>
-      </c>
-      <c r="H28" s="20"/>
+      <c r="B28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="15">
+        <v>20</v>
+      </c>
+      <c r="G28" s="18">
+        <v>20</v>
+      </c>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>501</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="19">
-        <v>2</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="16">
-        <v>20</v>
-      </c>
-      <c r="G29" s="19">
-        <v>20</v>
-      </c>
-      <c r="H29" s="20"/>
+      <c r="B29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="15">
+        <v>20</v>
+      </c>
+      <c r="G29" s="18">
+        <v>20</v>
+      </c>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <v>502</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="19">
-        <v>2</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="16">
-        <v>20</v>
-      </c>
-      <c r="G30" s="19">
-        <v>20</v>
-      </c>
-      <c r="H30" s="20"/>
+      <c r="B30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="18">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="15">
+        <v>20</v>
+      </c>
+      <c r="G30" s="18">
+        <v>20</v>
+      </c>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>503</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="19">
-        <v>2</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="16">
-        <v>20</v>
-      </c>
-      <c r="G31" s="19">
-        <v>20</v>
-      </c>
-      <c r="H31" s="20"/>
+      <c r="B31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="18">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="15">
+        <v>20</v>
+      </c>
+      <c r="G31" s="18">
+        <v>20</v>
+      </c>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <v>504</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="19">
-        <v>2</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="16">
-        <v>20</v>
-      </c>
-      <c r="G32" s="19">
-        <v>20</v>
-      </c>
-      <c r="H32" s="20"/>
+      <c r="B32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="18">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="15">
+        <v>20</v>
+      </c>
+      <c r="G32" s="18">
+        <v>20</v>
+      </c>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A33" s="18">
+      <c r="A33" s="17">
         <v>505</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="19">
-        <v>2</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="16">
-        <v>20</v>
-      </c>
-      <c r="G33" s="19">
-        <v>20</v>
-      </c>
-      <c r="H33" s="20"/>
+      <c r="B33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="15">
+        <v>20</v>
+      </c>
+      <c r="G33" s="18">
+        <v>20</v>
+      </c>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>601</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="19">
-        <v>2</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="16">
-        <v>20</v>
-      </c>
-      <c r="G34" s="19">
-        <v>20</v>
-      </c>
-      <c r="H34" s="20"/>
+      <c r="B34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="18">
+        <v>2</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="15">
+        <v>20</v>
+      </c>
+      <c r="G34" s="18">
+        <v>20</v>
+      </c>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A35" s="18">
+      <c r="A35" s="17">
         <v>602</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="19">
-        <v>2</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="16">
-        <v>20</v>
-      </c>
-      <c r="G35" s="19">
-        <v>20</v>
-      </c>
-      <c r="H35" s="20"/>
+      <c r="B35" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="18">
+        <v>2</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="15">
+        <v>20</v>
+      </c>
+      <c r="G35" s="18">
+        <v>20</v>
+      </c>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A36" s="18">
+      <c r="A36" s="17">
         <v>603</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="19">
-        <v>2</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="16">
-        <v>20</v>
-      </c>
-      <c r="G36" s="19">
-        <v>20</v>
-      </c>
-      <c r="H36" s="20"/>
+      <c r="B36" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="18">
+        <v>2</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="15">
+        <v>20</v>
+      </c>
+      <c r="G36" s="18">
+        <v>20</v>
+      </c>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A37" s="18">
+      <c r="A37" s="17">
         <v>604</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="19">
-        <v>2</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="16">
-        <v>20</v>
-      </c>
-      <c r="G37" s="19">
-        <v>20</v>
-      </c>
-      <c r="H37" s="20"/>
+      <c r="B37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="18">
+        <v>2</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="15">
+        <v>20</v>
+      </c>
+      <c r="G37" s="18">
+        <v>20</v>
+      </c>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <v>605</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="19">
-        <v>2</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="16">
-        <v>20</v>
-      </c>
-      <c r="G38" s="19">
-        <v>20</v>
-      </c>
-      <c r="H38" s="20"/>
+      <c r="B38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="15">
+        <v>20</v>
+      </c>
+      <c r="G38" s="18">
+        <v>20</v>
+      </c>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A39" s="18">
+      <c r="A39" s="17">
         <v>606</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="19">
-        <v>2</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="16">
-        <v>20</v>
-      </c>
-      <c r="G39" s="19">
-        <v>20</v>
-      </c>
-      <c r="H39" s="20"/>
+      <c r="B39" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="18">
+        <v>2</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="15">
+        <v>20</v>
+      </c>
+      <c r="G39" s="18">
+        <v>20</v>
+      </c>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A40" s="18">
+      <c r="A40" s="17">
         <v>607</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="19">
-        <v>2</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="16">
-        <v>20</v>
-      </c>
-      <c r="G40" s="19">
-        <v>20</v>
-      </c>
-      <c r="H40" s="20"/>
+      <c r="B40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="18">
+        <v>2</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="15">
+        <v>20</v>
+      </c>
+      <c r="G40" s="18">
+        <v>20</v>
+      </c>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" customFormat="1" ht="22.5" customHeight="1"/>
     <row r="42" customFormat="1" ht="22.5" customHeight="1"/>

--- a/excels/config/server/equip/server_equip_drop_config.xlsx
+++ b/excels/config/server/equip/server_equip_drop_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="779"/>
+    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="server_equip_drop_count" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="17">
   <si>
     <t>难度编号</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>掉落装备等级</t>
-  </si>
-  <si>
-    <t>等级概率</t>
   </si>
   <si>
     <t>difficulty_index</t>
@@ -77,9 +74,6 @@
     <t>equip_level</t>
   </si>
   <si>
-    <t>equip_level_pro</t>
-  </si>
-  <si>
     <t>1_0_1|1_1_1|1_2_1|1_3_1|1_4_1|1_5_1</t>
   </si>
   <si>
@@ -87,12 +81,6 @@
   </si>
   <si>
     <t>70|20|8|2</t>
-  </si>
-  <si>
-    <t>0|0</t>
-  </si>
-  <si>
-    <t>100|0</t>
   </si>
 </sst>
 </file>
@@ -855,7 +843,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -877,9 +865,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -892,16 +877,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1235,15 +1214,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E17" sqref="E17"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.2" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.2" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18.5083333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="7" customWidth="1"/>
@@ -1251,11 +1230,11 @@
     <col min="4" max="4" width="18.375" style="8" customWidth="1"/>
     <col min="5" max="5" width="14.5083333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="16.0083333333333" style="2" customWidth="1"/>
-    <col min="9" max="16383" width="9" style="2"/>
+    <col min="7" max="7" width="16.0083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16382" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1277,955 +1256,903 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A3" s="14">
+    </row>
+    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A3" s="13">
         <v>101</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A4" s="15">
+        <v>102</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A5" s="13">
+        <v>103</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A6" s="15">
+        <v>104</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A7" s="13">
+        <v>105</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A8" s="15">
+        <v>201</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="16">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A9" s="13">
+        <v>202</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A10" s="15">
+        <v>203</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A11" s="13">
+        <v>204</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A12" s="15">
+        <v>205</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A13" s="13">
+        <v>301</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A14" s="15">
+        <v>302</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A15" s="13">
+        <v>303</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="21" customHeight="1" spans="1:7">
+      <c r="A16" s="15">
+        <v>304</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A17" s="13">
+        <v>305</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="14">
+        <v>2</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A18" s="15">
+        <v>401</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="14">
+        <v>20</v>
+      </c>
+      <c r="G18" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A19" s="13">
+        <v>402</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="14">
+        <v>20</v>
+      </c>
+      <c r="G19" s="14">
         <v>17</v>
       </c>
-      <c r="D3" s="15">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15" t="s">
+    </row>
+    <row r="20" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A20" s="15">
+        <v>403</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="16">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="14">
+        <v>20</v>
+      </c>
+      <c r="G20" s="14">
         <v>18</v>
       </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15" t="s">
+    </row>
+    <row r="21" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A21" s="13">
+        <v>404</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="14">
+        <v>20</v>
+      </c>
+      <c r="G21" s="14">
         <v>19</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A4" s="17">
-        <v>102</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="18">
-        <v>2</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A5" s="14">
-        <v>103</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="15">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="17">
-        <v>104</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="18">
-        <v>2</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A7" s="14">
-        <v>105</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="15">
-        <v>2</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>10</v>
-      </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A8" s="17">
-        <v>201</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="18">
-        <v>2</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>6</v>
-      </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="14">
-        <v>202</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="15">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>7</v>
-      </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="17">
-        <v>203</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="18">
-        <v>2</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18">
-        <v>8</v>
-      </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A11" s="14">
-        <v>204</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="15">
-        <v>2</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>9</v>
-      </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A12" s="17">
-        <v>205</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="18">
-        <v>2</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>10</v>
-      </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A13" s="14">
-        <v>301</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="15">
-        <v>2</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>11</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A14" s="17">
-        <v>302</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="18">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>12</v>
-      </c>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A15" s="14">
-        <v>303</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>13</v>
-      </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A16" s="17">
-        <v>304</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="18">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
-        <v>14</v>
-      </c>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A17" s="14">
-        <v>305</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>15</v>
-      </c>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A18" s="17">
-        <v>401</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="15">
-        <v>20</v>
-      </c>
-      <c r="G18" s="18">
-        <v>16</v>
-      </c>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A19" s="14">
-        <v>402</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="15">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="15">
-        <v>20</v>
-      </c>
-      <c r="G19" s="15">
-        <v>17</v>
-      </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A20" s="17">
-        <v>403</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="18">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="15">
-        <v>20</v>
-      </c>
-      <c r="G20" s="18">
-        <v>18</v>
-      </c>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A21" s="14">
-        <v>404</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="15">
-        <v>2</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="15">
-        <v>20</v>
-      </c>
-      <c r="G21" s="15">
-        <v>19</v>
-      </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A22" s="17">
+    </row>
+    <row r="22" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A22" s="15">
         <v>405</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="18">
-        <v>2</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="15">
-        <v>20</v>
-      </c>
-      <c r="G22" s="18">
-        <v>20</v>
-      </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A23" s="17">
+      <c r="B22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="16">
+        <v>2</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="14">
+        <v>20</v>
+      </c>
+      <c r="G22" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A23" s="15">
         <v>406</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="15">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="15">
-        <v>20</v>
-      </c>
-      <c r="G23" s="18">
-        <v>20</v>
-      </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A24" s="17">
+      <c r="B23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="14">
+        <v>20</v>
+      </c>
+      <c r="G23" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A24" s="15">
         <v>407</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="18">
-        <v>2</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="15">
-        <v>20</v>
-      </c>
-      <c r="G24" s="18">
-        <v>20</v>
-      </c>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A25" s="17">
+      <c r="B24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="16">
+        <v>2</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="14">
+        <v>20</v>
+      </c>
+      <c r="G24" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A25" s="15">
         <v>408</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="18">
-        <v>2</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="15">
-        <v>20</v>
-      </c>
-      <c r="G25" s="18">
-        <v>20</v>
-      </c>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A26" s="17">
+      <c r="B25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="16">
+        <v>2</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="14">
+        <v>20</v>
+      </c>
+      <c r="G25" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A26" s="15">
         <v>409</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="18">
-        <v>2</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="15">
-        <v>20</v>
-      </c>
-      <c r="G26" s="18">
-        <v>20</v>
-      </c>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A27" s="17">
+      <c r="B26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="14">
+        <v>20</v>
+      </c>
+      <c r="G26" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A27" s="15">
         <v>410</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="18">
-        <v>2</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="15">
-        <v>20</v>
-      </c>
-      <c r="G27" s="18">
-        <v>20</v>
-      </c>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A28" s="17">
+      <c r="B27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="16">
+        <v>2</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="14">
+        <v>20</v>
+      </c>
+      <c r="G27" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A28" s="15">
         <v>411</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="18">
-        <v>2</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="15">
-        <v>20</v>
-      </c>
-      <c r="G28" s="18">
-        <v>20</v>
-      </c>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A29" s="17">
+      <c r="B28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="16">
+        <v>2</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="14">
+        <v>20</v>
+      </c>
+      <c r="G28" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A29" s="15">
         <v>501</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="18">
-        <v>2</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="15">
-        <v>20</v>
-      </c>
-      <c r="G29" s="18">
-        <v>20</v>
-      </c>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A30" s="17">
+      <c r="B29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="16">
+        <v>2</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="14">
+        <v>20</v>
+      </c>
+      <c r="G29" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A30" s="15">
         <v>502</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="18">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="15">
-        <v>20</v>
-      </c>
-      <c r="G30" s="18">
-        <v>20</v>
-      </c>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A31" s="17">
+      <c r="B30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="16">
+        <v>2</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="14">
+        <v>20</v>
+      </c>
+      <c r="G30" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A31" s="15">
         <v>503</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="18">
-        <v>2</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="15">
-        <v>20</v>
-      </c>
-      <c r="G31" s="18">
-        <v>20</v>
-      </c>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A32" s="17">
+      <c r="B31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="16">
+        <v>2</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="14">
+        <v>20</v>
+      </c>
+      <c r="G31" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A32" s="15">
         <v>504</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="18">
-        <v>2</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="15">
-        <v>20</v>
-      </c>
-      <c r="G32" s="18">
-        <v>20</v>
-      </c>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A33" s="17">
+      <c r="B32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="16">
+        <v>2</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="14">
+        <v>20</v>
+      </c>
+      <c r="G32" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A33" s="15">
         <v>505</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="18">
-        <v>2</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="15">
-        <v>20</v>
-      </c>
-      <c r="G33" s="18">
-        <v>20</v>
-      </c>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A34" s="17">
+      <c r="B33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="16">
+        <v>2</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="14">
+        <v>20</v>
+      </c>
+      <c r="G33" s="14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A34" s="15">
         <v>601</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="18">
-        <v>2</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="15">
-        <v>20</v>
-      </c>
-      <c r="G34" s="18">
-        <v>20</v>
-      </c>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A35" s="17">
+      <c r="B34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="16">
+        <v>2</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="14">
+        <v>20</v>
+      </c>
+      <c r="G34" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A35" s="15">
         <v>602</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="18">
-        <v>2</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="15">
-        <v>20</v>
-      </c>
-      <c r="G35" s="18">
-        <v>20</v>
-      </c>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A36" s="17">
+      <c r="B35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="16">
+        <v>2</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="14">
+        <v>20</v>
+      </c>
+      <c r="G35" s="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A36" s="15">
         <v>603</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="18">
-        <v>2</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="15">
-        <v>20</v>
-      </c>
-      <c r="G36" s="18">
-        <v>20</v>
-      </c>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A37" s="17">
+      <c r="B36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="16">
+        <v>2</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="14">
+        <v>20</v>
+      </c>
+      <c r="G36" s="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A37" s="15">
         <v>604</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="18">
-        <v>2</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="15">
-        <v>20</v>
-      </c>
-      <c r="G37" s="18">
-        <v>20</v>
-      </c>
-      <c r="H37" s="19"/>
-    </row>
-    <row r="38" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A38" s="17">
+      <c r="B37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="16">
+        <v>2</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="14">
+        <v>20</v>
+      </c>
+      <c r="G37" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A38" s="15">
         <v>605</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="18">
-        <v>2</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="15">
-        <v>20</v>
-      </c>
-      <c r="G38" s="18">
-        <v>20</v>
-      </c>
-      <c r="H38" s="19"/>
-    </row>
-    <row r="39" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A39" s="17">
+      <c r="B38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="16">
+        <v>2</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="14">
+        <v>20</v>
+      </c>
+      <c r="G38" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A39" s="15">
         <v>606</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="18">
-        <v>2</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="15">
-        <v>20</v>
-      </c>
-      <c r="G39" s="18">
-        <v>20</v>
-      </c>
-      <c r="H39" s="19"/>
-    </row>
-    <row r="40" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A40" s="17">
+      <c r="B39" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="16">
+        <v>2</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="14">
+        <v>20</v>
+      </c>
+      <c r="G39" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" s="5" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A40" s="15">
         <v>607</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="18">
-        <v>2</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="15">
-        <v>20</v>
-      </c>
-      <c r="G40" s="18">
-        <v>20</v>
-      </c>
-      <c r="H40" s="19"/>
+      <c r="B40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="16">
+        <v>2</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="14">
+        <v>20</v>
+      </c>
+      <c r="G40" s="14">
+        <v>38</v>
+      </c>
     </row>
     <row r="41" customFormat="1" ht="22.5" customHeight="1"/>
     <row r="42" customFormat="1" ht="22.5" customHeight="1"/>
